--- a/alphaline.xlsx
+++ b/alphaline.xlsx
@@ -99,7 +99,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="8.7822623570655067E-2"/>
-                  <c:y val="-7.2382759383992662E-2"/>
+                  <c:y val="-7.2382759383992676E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -118,13 +118,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -142,35 +145,38 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="62992384"/>
-        <c:axId val="60496896"/>
+        <c:axId val="66763392"/>
+        <c:axId val="85561728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="62992384"/>
+        <c:axId val="66763392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60496896"/>
+        <c:crossAx val="85561728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60496896"/>
+        <c:axId val="85561728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -178,7 +184,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62992384"/>
+        <c:crossAx val="66763392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -191,7 +197,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -517,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C5"/>
+  <dimension ref="B1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -543,15 +549,15 @@
     </row>
     <row r="3" spans="2:3">
       <c r="B3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C4">
         <v>0.3</v>
@@ -563,6 +569,14 @@
       </c>
       <c r="C5">
         <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
